--- a/src/test/resources/TestDriver/TestRevenue/ActivityData_Feb22.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/ActivityData_Feb22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\ReqAndTestPlans\SBOModel\Revenue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssctechnologiesinc-my.sharepoint.com/personal/rafay_ahmed_sscinc_com/Documents/Desktop/Pers/Revenue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF7D709-D044-4F4E-BB20-CFDE71BD4D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EAF7D709-D044-4F4E-BB20-CFDE71BD4D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B61DF1E-9E00-4F00-870C-57DF4B6CBE57}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{04F5826A-2203-4AF6-AC38-31E31D2ECDEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{04F5826A-2203-4AF6-AC38-31E31D2ECDEC}"/>
   </bookViews>
   <sheets>
     <sheet name="TransactionActivity" sheetId="15" r:id="rId1"/>
@@ -56,10 +56,10 @@
     <t>PostingDate</t>
   </si>
   <si>
-    <t>New Billing</t>
-  </si>
-  <si>
     <t>SO1</t>
+  </si>
+  <si>
+    <t>New_Billing</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
@@ -528,7 +528,7 @@
         <v>44620</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4">
         <v>1900</v>

--- a/src/test/resources/TestDriver/TestRevenue/ActivityData_Feb22.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/ActivityData_Feb22.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssctechnologiesinc-my.sharepoint.com/personal/rafay_ahmed_sscinc_com/Documents/Desktop/Pers/Revenue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestRevenue (1)\TestRevenue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EAF7D709-D044-4F4E-BB20-CFDE71BD4D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B61DF1E-9E00-4F00-870C-57DF4B6CBE57}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712F5973-C956-477A-982E-9365594C0839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{04F5826A-2203-4AF6-AC38-31E31D2ECDEC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>TransactionName</t>
   </si>
@@ -60,15 +60,24 @@
   </si>
   <si>
     <t>New_Billing</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>SO3</t>
+  </si>
+  <si>
+    <t>SO4</t>
+  </si>
+  <si>
+    <t>SO5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,15 +156,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -477,7 +483,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -495,22 +501,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -518,69 +524,101 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>44620</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="4">
+        <v>44620</v>
+      </c>
+      <c r="D2" s="4">
         <v>44620</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>1900</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44620</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44620</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3800</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44620</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44620</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5700</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44620</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44620</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7600</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44620</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44620</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
